--- a/branches/vidacamara_1/docs/qa/revision_sistema_rreyes.xlsx
+++ b/branches/vidacamara_1/docs/qa/revision_sistema_rreyes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="18855" windowHeight="8190"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="18855" windowHeight="8190" tabRatio="871" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Resumen" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Usuario" sheetId="9" r:id="rId9"/>
     <sheet name="Menu de acceso por grupo" sheetId="10" r:id="rId10"/>
     <sheet name="Tipo Revelacion" sheetId="11" r:id="rId11"/>
+    <sheet name="Configurador de Revelaciones" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resumen!$A$2:$E$20</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>Descripción</t>
   </si>
@@ -195,13 +196,19 @@
   </si>
   <si>
     <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Clonar una revelacion</t>
+  </si>
+  <si>
+    <t>Modificar Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +464,581 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>694286</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="1 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="571500"/>
+          <a:ext cx="8314286" cy="3514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>627524</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>180334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="2 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="4381500"/>
+          <a:ext cx="9009524" cy="5133334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>217810</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>66024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="3 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="9715500"/>
+          <a:ext cx="10123810" cy="5209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>484667</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>104024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="4 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="15240000"/>
+          <a:ext cx="8866667" cy="6009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>741905</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>56405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="5 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="21526500"/>
+          <a:ext cx="8361905" cy="5961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>284858</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>56596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="7 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="27813000"/>
+          <a:ext cx="7142858" cy="4438096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>122477</xdr:colOff>
+      <xdr:row>200</xdr:row>
+      <xdr:rowOff>132643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="8 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="32575500"/>
+          <a:ext cx="10790477" cy="5657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>379525</xdr:colOff>
+      <xdr:row>232</xdr:row>
+      <xdr:rowOff>56429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="9 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="38481000"/>
+          <a:ext cx="11809525" cy="5771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>513239</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>113619</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="10 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="44577000"/>
+          <a:ext cx="8895239" cy="5447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>150953</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>123381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="11 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="50292000"/>
+          <a:ext cx="11580953" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>732191</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>65929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="12 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="54102000"/>
+          <a:ext cx="9876191" cy="5971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>598858</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>56477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="13 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="60769500"/>
+          <a:ext cx="9742858" cy="5390477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>636667</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>151691</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="14 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="66294000"/>
+          <a:ext cx="12066667" cy="5676191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>379</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>722477</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>123167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="15 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="72199500"/>
+          <a:ext cx="11390477" cy="5266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>246096</xdr:colOff>
+      <xdr:row>438</xdr:row>
+      <xdr:rowOff>189762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="16 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="77724000"/>
+          <a:ext cx="12438096" cy="5904762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1586,6 +2168,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1620,6 +2203,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1795,14 +2379,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="A2:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.140625" customWidth="1"/>
@@ -1814,7 +2399,7 @@
     <col min="8" max="8" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1840,7 +2425,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1863,7 +2448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1886,7 +2471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>27</v>
       </c>
@@ -1909,7 +2494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
@@ -1932,7 +2517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1955,7 +2540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>32</v>
       </c>
@@ -1978,7 +2563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
@@ -2001,7 +2586,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -2024,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -2047,7 +2632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
@@ -2070,7 +2655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -2093,7 +2678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -2116,7 +2701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>31</v>
       </c>
@@ -2139,7 +2724,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
@@ -2162,7 +2747,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
@@ -2185,7 +2770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>28</v>
       </c>
@@ -2208,7 +2793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>33</v>
       </c>
@@ -2231,7 +2816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -2256,6 +2841,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:E20">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="RRC"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A3:E20">
       <sortCondition descending="1" ref="C2:C20"/>
     </sortState>
@@ -2278,14 +2868,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2293,18 +2883,44 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B318"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="B409" sqref="B409"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2314,21 +2930,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="46.7109375" customWidth="1"/>
     <col min="4" max="4" width="87.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2339,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>36</v>
       </c>
@@ -2350,7 +2966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>49</v>
       </c>
@@ -2362,20 +2978,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="105.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2383,7 +2999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -2391,7 +3007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>44</v>
       </c>
@@ -2404,19 +3020,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
-    </sheetView>
+    <sheetView topLeftCell="A198" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="68.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2424,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:22">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>41</v>
       </c>
@@ -2446,28 +3060,28 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75">
+    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="15.75">
+    <row r="25" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="6"/>
     </row>
-    <row r="58" spans="2:2" ht="15.75">
+    <row r="58" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
         <v>39</v>
       </c>
@@ -2483,31 +3097,31 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>46</v>
       </c>
@@ -2519,16 +3133,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>50</v>
       </c>
@@ -2540,14 +3154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2555,14 +3169,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
+    <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
